--- a/sem6/HURT/lab2/Book2.xlsx
+++ b/sem6/HURT/lab2/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliks\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliks\Documents\GitHub\PWR\sem6\HURT\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67080EC3-ED66-444A-9D06-3A6F7F31C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2501939-95AA-41D9-ABB7-97D76A4A8532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{9A65B78A-43F9-431A-9F45-3B7A66064444}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{9A65B78A-43F9-431A-9F45-3B7A66064444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
   <si>
     <t>AU</t>
   </si>
@@ -307,6 +308,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Sold</t>
   </si>
 </sst>
 </file>
@@ -813,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895D88F3-F510-4E12-A416-049B3247F25A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1404,4 +1408,419 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C488AA32-148E-43E6-B78A-47FAAB49DD08}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>19541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>18006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>28321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>47196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>14751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>13012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>22711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>9967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <v>11621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33">
+        <v>11753</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36">
+        <v>5273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>